--- a/data/survey_data_fly_tidy.xlsx
+++ b/data/survey_data_fly_tidy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soniasidhu/Desktop/tfcb-homework01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6C1575-5C5A-3748-A38A-632781F94C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D826EB9-F864-F04F-9220-D9A6DDADAC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1300" windowWidth="25120" windowHeight="15580" tabRatio="481" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="123">
   <si>
     <t>NA</t>
   </si>
@@ -287,6 +287,123 @@
   </si>
   <si>
     <t>2015/07/08</t>
+  </si>
+  <si>
+    <t>sample_identifier</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>drosophilla_melanogaster_field_data</t>
   </si>
 </sst>
 </file>
@@ -500,14 +617,14 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,7 +1017,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -944,7 +1061,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2459,1147 +2576,1301 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212EFC79-CBB0-3B4E-AD2A-92A5C2499DD4}">
-  <dimension ref="A2:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18" style="22" customWidth="1"/>
+    <col min="1" max="1" width="24" style="21" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="22" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="22"/>
+    <col min="3" max="3" width="20.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="22"/>
     <col min="5" max="5" width="14.33203125" style="22" customWidth="1"/>
     <col min="6" max="6" width="23" style="22" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="22"/>
+    <col min="8" max="8" width="35.5" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="22">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="22">
         <v>1978</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="22">
+      <c r="G3" s="22">
         <v>37</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="22">
+      <c r="H3" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="22">
         <v>1978</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="G4" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="22">
+      <c r="H4" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="22">
         <v>1978</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="22">
+      <c r="G5" s="22">
         <v>48</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="22">
+      <c r="H5" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="22">
         <v>1978</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="22">
+      <c r="G6" s="22">
         <v>52</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="22">
+      <c r="H6" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="22">
         <v>1978</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="22">
+      <c r="G7" s="22">
         <v>35</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="22">
+      <c r="H7" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="22">
         <v>2013</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="F8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="G8" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="22">
+      <c r="H8" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="22">
         <v>2013</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="22">
+      <c r="G9" s="22">
         <v>33</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
+      <c r="H9" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="22">
         <v>2013</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="C10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="G10" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
+      <c r="H10" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="22">
         <v>2013</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="G11" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
+      <c r="H11" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="22">
         <v>2013</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="E12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="F12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="22">
+      <c r="G12" s="22">
         <v>40</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
+      <c r="H12" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="22">
         <v>2013</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="22">
+      <c r="G13" s="22">
         <v>48</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+      <c r="H13" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="22">
         <v>2013</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="22">
+      <c r="G14" s="22">
         <v>29</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
+      <c r="H14" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="22">
         <v>2013</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="C15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="22">
+      <c r="G15" s="22">
         <v>37</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+      <c r="H15" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="22">
         <v>2013</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="C16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="F16" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="22">
+      <c r="G16" s="22">
         <v>52</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
+      <c r="H16" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="22">
         <v>2013</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="D17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="E17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="F17" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="22">
+      <c r="G17" s="22">
         <v>33</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="22">
+      <c r="H17" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="22">
         <v>2013</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="D18" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="E18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="F18" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="22">
+      <c r="G18" s="22">
         <v>50</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="22">
+      <c r="H18" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="22">
         <v>2013</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="D19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="E19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="22">
+      <c r="G19" s="22">
         <v>40</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="22">
+      <c r="H19" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="22">
         <v>2013</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="E20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="22">
+      <c r="G20" s="22">
         <v>45</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="22">
+      <c r="H20" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="22">
         <v>2013</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="C21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="E21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="22">
+      <c r="G21" s="22">
         <v>41</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="22">
+      <c r="H21" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="22">
         <v>2013</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="D22" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="E22" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="F22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="22">
+      <c r="G22" s="22">
         <v>117</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="22">
+      <c r="H22" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="22">
         <v>2013</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="C23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="D23" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="E23" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="F23" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="22">
+      <c r="G23" s="22">
         <v>126</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="22">
+      <c r="H23" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="22">
         <v>2013</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="D24" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="E24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="F24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="22">
+      <c r="G24" s="22">
         <v>132</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="H24" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="22">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="22">
         <v>2013</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="C25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="D25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="E25" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="F25" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="22">
+      <c r="G25" s="22">
         <v>113</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="H25" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="22">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="22">
         <v>2013</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="C26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="D26" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="E26" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="F26" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="22">
+      <c r="G26" s="22">
         <v>122</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="22">
+      <c r="H26" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="22">
         <v>2013</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="C27" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="E27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="F27" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="22">
+      <c r="G27" s="22">
         <v>107</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="22">
+      <c r="H27" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="22">
         <v>2013</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="D28" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="E28" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="F28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="22">
+      <c r="G28" s="22">
         <v>115</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="22">
+      <c r="H28" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="22">
         <v>2014</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="D29" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="E29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="F29" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="22">
+      <c r="G29" s="22">
         <v>40</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="22">
+      <c r="H29" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="22">
         <v>2014</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="D30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="E30" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="F30" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="22">
+      <c r="G30" s="22">
         <v>36</v>
       </c>
-      <c r="G30" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="22">
+      <c r="H30" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="22">
         <v>2014</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="C31" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="D31" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="E31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="F31" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="22">
+      <c r="G31" s="22">
         <v>51</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="22">
+      <c r="H31" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="22">
         <v>2014</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="C32" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="D32" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="E32" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="F32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="22">
+      <c r="G32" s="22">
         <v>44</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="22">
+      <c r="H32" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="22">
         <v>2014</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="C33" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="D33" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="E33" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="F33" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="22">
+      <c r="G33" s="22">
         <v>146</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="22">
+      <c r="H33" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="22">
         <v>2014</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="C34" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="D34" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="G34" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="22">
+      <c r="H34" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="22">
         <v>2014</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="C35" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="D35" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="E35" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="F35" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="22">
+      <c r="G35" s="22">
         <v>44</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="22">
+      <c r="H35" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="22">
         <v>2014</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="C36" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="D36" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="E36" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="F36" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="22">
+      <c r="G36" s="22">
         <v>7</v>
       </c>
-      <c r="G36" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="22">
+      <c r="H36" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="22">
         <v>2014</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="D37" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="E37" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="F37" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="22">
+      <c r="G37" s="22">
         <v>45</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="22">
+      <c r="H37" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="22">
         <v>2014</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="D38" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="G38" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="22">
+      <c r="H38" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="22">
         <v>2014</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="C39" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="D39" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="E39" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="F39" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="23">
+      <c r="G39" s="22">
         <v>157</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="H39" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="22">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="22">
         <v>2014</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="C40" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="D40" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="G40" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="22">
+      <c r="H40" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="22">
         <v>2014</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="D41" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="F41" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="23">
+      <c r="G41" s="22">
         <v>218</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="H41" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="22">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="22">
         <v>2014</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="C42" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="D42" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="E42" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="F42" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="22">
+      <c r="G42" s="22">
         <v>7</v>
       </c>
-      <c r="G42" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="22">
+      <c r="H42" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="22">
         <v>2014</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="D43" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="E43" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="F43" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="22">
+      <c r="G43" s="22">
         <v>52</v>
       </c>
-      <c r="G43" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="22">
+      <c r="H43" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="22">
         <v>2015</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="C44" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="D44" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="E44" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="F44" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="22">
+      <c r="G44" s="22">
         <v>8</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="22">
+      <c r="H44" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="22">
         <v>2015</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="D45" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="F45" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="G45" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="22">
+      <c r="H45" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="22">
         <v>2015</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="C46" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="D46" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="G46" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="22">
+      <c r="H46" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="22">
         <v>2015</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="C47" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="D47" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="F47" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="22">
+      <c r="G47" s="22">
         <v>182</v>
       </c>
-      <c r="G47" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="22">
+      <c r="H47" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="22">
         <v>2015</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="C48" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="D48" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="E48" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="F48" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="22">
+      <c r="G48" s="22">
         <v>29</v>
       </c>
-      <c r="G48" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="22">
+      <c r="H48" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="22">
         <v>2015</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="C49" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="D49" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="F49" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="22">
+      <c r="G49" s="22">
         <v>115</v>
       </c>
-      <c r="G49" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="22">
+      <c r="H49" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="22">
         <v>2015</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="C50" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>0</v>
-      </c>
       <c r="D50" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="F50" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="22">
+      <c r="G50" s="22">
         <v>190</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="H50" s="22" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3607,7 +3878,7 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E3:E50" numberStoredAsText="1"/>
+    <ignoredError sqref="F3:F50 A3:A50" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>